--- a/public/files/tcherenkovskiy/report.xlsx
+++ b/public/files/tcherenkovskiy/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>Расход электроэнергии за</t>
   </si>
@@ -67,13 +67,34 @@
     <t>конец</t>
   </si>
   <si>
+    <t>2283Г</t>
+  </si>
+  <si>
     <t>ПЗР к бурению</t>
   </si>
   <si>
     <t>бурение</t>
   </si>
   <si>
+    <t>2022-01-26 20:00</t>
+  </si>
+  <si>
+    <t>2022-02-01 20:44</t>
+  </si>
+  <si>
     <t>Итого по скважине</t>
+  </si>
+  <si>
+    <t>666Г</t>
+  </si>
+  <si>
+    <t>2022-02-01 20:45</t>
+  </si>
+  <si>
+    <t>2022-02-02 20:45</t>
+  </si>
+  <si>
+    <t>2022-02-28 20:45</t>
   </si>
   <si>
     <t>переход</t>
@@ -1141,9 +1162,11 @@
       <c r="AL9" s="20"/>
     </row>
     <row r="10" ht="13.8" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="B10" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
@@ -1191,13 +1214,13 @@
     <row r="11" ht="13.8" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="33">
-        <v>44527.08333333333</v>
-      </c>
-      <c r="D11" s="34">
-        <v>44538.25</v>
+        <v>18</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>20</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
@@ -1243,7 +1266,7 @@
     <row r="12" ht="15.75" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="38" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
@@ -1382,15 +1405,17 @@
       <c r="AL12" s="20"/>
     </row>
     <row r="13" ht="13.8" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="23">
-        <v>44538.25</v>
-      </c>
-      <c r="D13" s="24">
-        <v>44539.04166666667</v>
+        <v>17</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
@@ -1436,13 +1461,13 @@
     <row r="14" ht="13.8" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="33">
-        <v>44539.04166666667</v>
-      </c>
-      <c r="D14" s="33">
-        <v>44547.41666666667</v>
+        <v>18</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="43"/>
@@ -1488,7 +1513,7 @@
     <row r="15" ht="15.75" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="38" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
@@ -1629,7 +1654,7 @@
     <row r="16" ht="13.8" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="23">
         <v>44547.41666666667</v>
@@ -1681,7 +1706,7 @@
     <row r="17" ht="13.8" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="33">
         <v>44548.25</v>
@@ -1733,7 +1758,7 @@
     <row r="18" ht="15.75" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="38" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
@@ -1874,7 +1899,7 @@
     <row r="19" ht="13.8" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="50">
         <v>44558.33333333333</v>
@@ -1926,13 +1951,13 @@
     <row r="20" ht="13.8" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="33">
         <v>44559</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E20" s="43"/>
       <c r="F20" s="43"/>
@@ -1978,7 +2003,7 @@
     <row r="21" ht="15.75" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="38" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
@@ -2151,7 +2176,7 @@
       <c r="AF22" s="55"/>
       <c r="AG22" s="55"/>
       <c r="AH22" s="55" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AI22" s="55"/>
       <c r="AJ22" s="56">
@@ -2308,7 +2333,7 @@
     <row r="28" ht="13.8" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2430,7 +2455,7 @@
     <row r="31" ht="13.8" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="64"/>
       <c r="B31" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -2482,7 +2507,7 @@
       <c r="J32" s="62"/>
       <c r="K32" s="61"/>
       <c r="L32" s="67" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M32" s="67"/>
       <c r="N32" s="67"/>
@@ -2554,7 +2579,7 @@
     <row r="34" ht="13.8" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="64"/>
       <c r="B34" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -2606,7 +2631,7 @@
       <c r="J35" s="61"/>
       <c r="K35" s="61"/>
       <c r="L35" s="67" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M35" s="67"/>
       <c r="N35" s="67"/>
@@ -2678,7 +2703,7 @@
     <row r="37" ht="13.8" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="64"/>
       <c r="B37" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="61"/>
@@ -2720,7 +2745,7 @@
     <row r="38" ht="13.8" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="64"/>
       <c r="B38" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="61"/>
@@ -2802,7 +2827,7 @@
     <row r="40" ht="13.8" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="64"/>
       <c r="B40" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>

--- a/public/files/tcherenkovskiy/report.xlsx
+++ b/public/files/tcherenkovskiy/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Расход электроэнергии за</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>2022-02-28 20:45</t>
-  </si>
-  <si>
-    <t>переход</t>
   </si>
   <si>
     <t>ВСЕГО за месяц</t>
@@ -676,7 +673,7 @@
   <dimension ref="A1:AL40"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
-      <selection activeCell="AJ10" sqref="AJ10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="8.54296875"/>
@@ -1203,11 +1200,9 @@
       <c r="AI10" s="29"/>
       <c r="AJ10" s="30">
         <f>SUM(E10:AI10)</f>
-        <v>0</v>
-      </c>
-      <c r="AK10" s="31" t="e">
-        <f>AJ10/AJ19*AL19</f>
-        <v>#DIV/0!</v>
+      </c>
+      <c r="AK10" s="31">
+        <f>AJ10/AJ22*AL22</f>
       </c>
       <c r="AL10" s="20"/>
     </row>
@@ -1247,19 +1242,27 @@
       <c r="AA11" s="35"/>
       <c r="AB11" s="35"/>
       <c r="AC11" s="35"/>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="35"/>
+      <c r="AD11" s="35">
+        <v>5340</v>
+      </c>
+      <c r="AE11" s="35">
+        <v>12578</v>
+      </c>
+      <c r="AF11" s="35">
+        <v>8522</v>
+      </c>
+      <c r="AG11" s="36">
+        <v>12070</v>
+      </c>
+      <c r="AH11" s="35">
+        <v>3267</v>
+      </c>
       <c r="AI11" s="37"/>
       <c r="AJ11" s="30">
         <f>SUM(E11:AI11)</f>
-        <v>0</v>
-      </c>
-      <c r="AK11" s="31" t="e">
+      </c>
+      <c r="AK11" s="31">
         <f>AJ11/AJ22*AL22</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="AL11" s="20"/>
     </row>
@@ -1271,136 +1274,103 @@
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39">
-        <f>E11</f>
-        <v>0</v>
+        <f>E10+E11</f>
       </c>
       <c r="F12" s="39">
-        <f>F11</f>
-        <v>0</v>
+        <f>F10+F11</f>
       </c>
       <c r="G12" s="39">
-        <f>G11</f>
-        <v>0</v>
+        <f>G10+G11</f>
       </c>
       <c r="H12" s="39">
-        <f>H11</f>
-        <v>0</v>
+        <f>H10+H11</f>
       </c>
       <c r="I12" s="39">
-        <f>I11</f>
-        <v>0</v>
+        <f>I10+I11</f>
       </c>
       <c r="J12" s="39">
-        <f>J11</f>
-        <v>0</v>
+        <f>J10+J11</f>
       </c>
       <c r="K12" s="39">
-        <f>K11</f>
-        <v>0</v>
+        <f>K10+K11</f>
       </c>
       <c r="L12" s="39">
-        <f>L11</f>
-        <v>0</v>
+        <f>L10+L11</f>
       </c>
       <c r="M12" s="39">
-        <f>M11</f>
-        <v>0</v>
+        <f>M10+M11</f>
       </c>
       <c r="N12" s="39">
-        <f>N11</f>
-        <v>0</v>
+        <f>N10+N11</f>
       </c>
       <c r="O12" s="39">
-        <f>O11</f>
-        <v>0</v>
+        <f>O10+O11</f>
       </c>
       <c r="P12" s="39">
-        <f>P11</f>
-        <v>0</v>
+        <f>P10+P11</f>
       </c>
       <c r="Q12" s="39">
-        <f>Q11</f>
-        <v>0</v>
+        <f>Q10+Q11</f>
       </c>
       <c r="R12" s="39">
-        <f>R11</f>
-        <v>0</v>
+        <f>R10+R11</f>
       </c>
       <c r="S12" s="39">
-        <f>S11</f>
-        <v>0</v>
+        <f>S10+S11</f>
       </c>
       <c r="T12" s="39">
-        <f>T11</f>
-        <v>0</v>
+        <f>T10+T11</f>
       </c>
       <c r="U12" s="39">
-        <f>U11</f>
-        <v>0</v>
+        <f>U10+U11</f>
       </c>
       <c r="V12" s="39">
-        <f>V11</f>
-        <v>0</v>
+        <f>V10+V11</f>
       </c>
       <c r="W12" s="39">
-        <f>W11</f>
-        <v>0</v>
+        <f>W10+W11</f>
       </c>
       <c r="X12" s="39">
-        <f>X11</f>
-        <v>0</v>
+        <f>X10+X11</f>
       </c>
       <c r="Y12" s="39">
-        <f>Y11</f>
-        <v>0</v>
+        <f>Y10+Y11</f>
       </c>
       <c r="Z12" s="39">
-        <f>Z11</f>
-        <v>0</v>
+        <f>Z10+Z11</f>
       </c>
       <c r="AA12" s="39">
-        <f>AA11</f>
-        <v>0</v>
+        <f>AA10+AA11</f>
       </c>
       <c r="AB12" s="39">
-        <f>AB11</f>
-        <v>0</v>
+        <f>AB10+AB11</f>
       </c>
       <c r="AC12" s="39">
-        <f>AC11</f>
-        <v>0</v>
+        <f>AC10+AC11</f>
       </c>
       <c r="AD12" s="39">
-        <f>AD11</f>
-        <v>0</v>
+        <f>AD10+AD11</f>
       </c>
       <c r="AE12" s="39">
-        <f>AE11</f>
-        <v>0</v>
+        <f>AE10+AE11</f>
       </c>
       <c r="AF12" s="39">
-        <f>AF11</f>
-        <v>0</v>
+        <f>AF10+AF11</f>
       </c>
       <c r="AG12" s="39">
-        <f>AG11</f>
-        <v>0</v>
+        <f>AG10+AG11</f>
       </c>
       <c r="AH12" s="39">
-        <f>AH11</f>
-        <v>0</v>
+        <f>AH10+AH11</f>
       </c>
       <c r="AI12" s="40">
-        <f>AI11</f>
-        <v>0</v>
+        <f>AI10+AI11</f>
       </c>
       <c r="AJ12" s="41">
-        <f>AJ11</f>
-        <v>0</v>
-      </c>
-      <c r="AK12" s="42" t="e">
-        <f>AK11</f>
-        <v>#DIV/0!</v>
+        <f>AJ10+AJ11</f>
+      </c>
+      <c r="AK12" s="42">
+        <f>AK10+AK11</f>
       </c>
       <c r="AL12" s="20"/>
     </row>
@@ -1417,44 +1387,102 @@
       <c r="D13" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="28"/>
-      <c r="AH13" s="28"/>
+      <c r="E13" s="25">
+        <v>4031</v>
+      </c>
+      <c r="F13" s="25">
+        <v>27347</v>
+      </c>
+      <c r="G13" s="25">
+        <v>14629</v>
+      </c>
+      <c r="H13" s="25">
+        <v>15862</v>
+      </c>
+      <c r="I13" s="25">
+        <v>28027</v>
+      </c>
+      <c r="J13" s="25">
+        <v>18927</v>
+      </c>
+      <c r="K13" s="25">
+        <v>20827</v>
+      </c>
+      <c r="L13" s="25">
+        <v>23473</v>
+      </c>
+      <c r="M13" s="25">
+        <v>8397</v>
+      </c>
+      <c r="N13" s="25">
+        <v>17725</v>
+      </c>
+      <c r="O13" s="25">
+        <v>14430</v>
+      </c>
+      <c r="P13" s="25">
+        <v>8041</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>7691</v>
+      </c>
+      <c r="R13" s="25">
+        <v>7650</v>
+      </c>
+      <c r="S13" s="25">
+        <v>3438</v>
+      </c>
+      <c r="T13" s="25">
+        <v>8585</v>
+      </c>
+      <c r="U13" s="25">
+        <v>29569</v>
+      </c>
+      <c r="V13" s="26">
+        <v>20002</v>
+      </c>
+      <c r="W13" s="26">
+        <v>8914</v>
+      </c>
+      <c r="X13" s="25">
+        <v>7731</v>
+      </c>
+      <c r="Y13" s="25">
+        <v>21440</v>
+      </c>
+      <c r="Z13" s="25">
+        <v>19270</v>
+      </c>
+      <c r="AA13" s="25">
+        <v>29540</v>
+      </c>
+      <c r="AB13" s="25">
+        <v>27755</v>
+      </c>
+      <c r="AC13" s="25">
+        <v>13807</v>
+      </c>
+      <c r="AD13" s="25">
+        <v>33447</v>
+      </c>
+      <c r="AE13" s="27">
+        <v>12578</v>
+      </c>
+      <c r="AF13" s="27">
+        <v>8522</v>
+      </c>
+      <c r="AG13" s="28">
+        <v>12070</v>
+      </c>
+      <c r="AH13" s="28">
+        <v>3267</v>
+      </c>
       <c r="AI13" s="29"/>
       <c r="AJ13" s="30">
         <f>SUM(E13:AI13)</f>
-        <v>0</v>
-      </c>
-      <c r="AK13" s="31" t="e">
+      </c>
+      <c r="AK13" s="31">
         <f>AJ13/AJ22*AL22</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="AL13" s="20"/>
     </row>
@@ -1470,43 +1498,99 @@
         <v>25</v>
       </c>
       <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="43"/>
-      <c r="AC14" s="43"/>
-      <c r="AD14" s="43"/>
-      <c r="AE14" s="43"/>
-      <c r="AF14" s="43"/>
-      <c r="AG14" s="43"/>
-      <c r="AH14" s="43"/>
+      <c r="F14" s="43">
+        <v>4602</v>
+      </c>
+      <c r="G14" s="43">
+        <v>14629</v>
+      </c>
+      <c r="H14" s="43">
+        <v>15862</v>
+      </c>
+      <c r="I14" s="43">
+        <v>28027</v>
+      </c>
+      <c r="J14" s="43">
+        <v>18927</v>
+      </c>
+      <c r="K14" s="43">
+        <v>20827</v>
+      </c>
+      <c r="L14" s="43">
+        <v>23473</v>
+      </c>
+      <c r="M14" s="43">
+        <v>8397</v>
+      </c>
+      <c r="N14" s="43">
+        <v>17725</v>
+      </c>
+      <c r="O14" s="43">
+        <v>14430</v>
+      </c>
+      <c r="P14" s="43">
+        <v>8041</v>
+      </c>
+      <c r="Q14" s="43">
+        <v>7691</v>
+      </c>
+      <c r="R14" s="43">
+        <v>7650</v>
+      </c>
+      <c r="S14" s="43">
+        <v>3438</v>
+      </c>
+      <c r="T14" s="43">
+        <v>8585</v>
+      </c>
+      <c r="U14" s="43">
+        <v>29569</v>
+      </c>
+      <c r="V14" s="43">
+        <v>20002</v>
+      </c>
+      <c r="W14" s="43">
+        <v>8914</v>
+      </c>
+      <c r="X14" s="43">
+        <v>7731</v>
+      </c>
+      <c r="Y14" s="43">
+        <v>21440</v>
+      </c>
+      <c r="Z14" s="43">
+        <v>19270</v>
+      </c>
+      <c r="AA14" s="43">
+        <v>29540</v>
+      </c>
+      <c r="AB14" s="43">
+        <v>27755</v>
+      </c>
+      <c r="AC14" s="43">
+        <v>13807</v>
+      </c>
+      <c r="AD14" s="43">
+        <v>33447</v>
+      </c>
+      <c r="AE14" s="43">
+        <v>12578</v>
+      </c>
+      <c r="AF14" s="43">
+        <v>8522</v>
+      </c>
+      <c r="AG14" s="43">
+        <v>12070</v>
+      </c>
+      <c r="AH14" s="43">
+        <v>3267</v>
+      </c>
       <c r="AI14" s="44"/>
       <c r="AJ14" s="45">
         <f>SUM(E14:AI14)</f>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="46" t="e">
+      </c>
+      <c r="AK14" s="46">
         <f>AJ14/AJ22*AL22</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="AL14" s="20"/>
     </row>
@@ -1519,135 +1603,102 @@
       <c r="D15" s="38"/>
       <c r="E15" s="39">
         <f>E13+E14</f>
-        <v>0</v>
       </c>
       <c r="F15" s="39">
         <f>F13+F14</f>
-        <v>0</v>
       </c>
       <c r="G15" s="39">
         <f>G13+G14</f>
-        <v>0</v>
       </c>
       <c r="H15" s="39">
         <f>H13+H14</f>
-        <v>0</v>
       </c>
       <c r="I15" s="39">
         <f>I13+I14</f>
-        <v>0</v>
       </c>
       <c r="J15" s="39">
         <f>J13+J14</f>
-        <v>0</v>
       </c>
       <c r="K15" s="39">
         <f>K13+K14</f>
-        <v>0</v>
       </c>
       <c r="L15" s="39">
         <f>L13+L14</f>
-        <v>0</v>
       </c>
       <c r="M15" s="39">
         <f>M13+M14</f>
-        <v>0</v>
       </c>
       <c r="N15" s="39">
         <f>N13+N14</f>
-        <v>0</v>
       </c>
       <c r="O15" s="39">
         <f>O13+O14</f>
-        <v>0</v>
       </c>
       <c r="P15" s="39">
         <f>P13+P14</f>
-        <v>0</v>
       </c>
       <c r="Q15" s="39">
         <f>Q13+Q14</f>
-        <v>0</v>
       </c>
       <c r="R15" s="39">
         <f>R13+R14</f>
-        <v>0</v>
       </c>
       <c r="S15" s="39">
         <f>S13+S14</f>
-        <v>0</v>
       </c>
       <c r="T15" s="39">
         <f>T13+T14</f>
-        <v>0</v>
       </c>
       <c r="U15" s="39">
         <f>U13+U14</f>
-        <v>0</v>
       </c>
       <c r="V15" s="39">
         <f>V13+V14</f>
-        <v>0</v>
       </c>
       <c r="W15" s="39">
         <f>W13+W14</f>
-        <v>0</v>
       </c>
       <c r="X15" s="39">
         <f>X13+X14</f>
-        <v>0</v>
       </c>
       <c r="Y15" s="39">
         <f>Y13+Y14</f>
-        <v>0</v>
       </c>
       <c r="Z15" s="39">
         <f>Z13+Z14</f>
-        <v>0</v>
       </c>
       <c r="AA15" s="39">
         <f>AA13+AA14</f>
-        <v>0</v>
       </c>
       <c r="AB15" s="39">
         <f>AB13+AB14</f>
-        <v>0</v>
       </c>
       <c r="AC15" s="39">
         <f>AC13+AC14</f>
-        <v>0</v>
       </c>
       <c r="AD15" s="39">
         <f>AD13+AD14</f>
-        <v>0</v>
       </c>
       <c r="AE15" s="39">
         <f>AE13+AE14</f>
-        <v>0</v>
       </c>
       <c r="AF15" s="39">
         <f>AF13+AF14</f>
-        <v>0</v>
       </c>
       <c r="AG15" s="47">
         <f>AG13+AG14</f>
-        <v>0</v>
       </c>
       <c r="AH15" s="47">
         <f>AH13+AH14</f>
-        <v>0</v>
       </c>
       <c r="AI15" s="48">
         <f>AI13+AI14</f>
-        <v>0</v>
       </c>
       <c r="AJ15" s="41">
         <f>AJ13+AJ14</f>
-        <v>0</v>
-      </c>
-      <c r="AK15" s="42" t="e">
+      </c>
+      <c r="AK15" s="42">
         <f>AK13+AK14</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="AL15" s="20"/>
     </row>
@@ -1656,12 +1707,8 @@
       <c r="B16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="23">
-        <v>44547.41666666667</v>
-      </c>
-      <c r="D16" s="24">
-        <v>44548.25</v>
-      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
@@ -1695,11 +1742,9 @@
       <c r="AI16" s="29"/>
       <c r="AJ16" s="30">
         <f>SUM(E16:AI16)</f>
-        <v>0</v>
-      </c>
-      <c r="AK16" s="31" t="e">
+      </c>
+      <c r="AK16" s="31">
         <f>AJ16/AJ22*AL22</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="AL16" s="20"/>
     </row>
@@ -1708,12 +1753,8 @@
       <c r="B17" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="33">
-        <v>44548.25</v>
-      </c>
-      <c r="D17" s="49">
-        <v>44558.33333333333</v>
-      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="43"/>
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
@@ -1747,11 +1788,9 @@
       <c r="AI17" s="44"/>
       <c r="AJ17" s="45">
         <f>SUM(E17:AI17)</f>
-        <v>0</v>
-      </c>
-      <c r="AK17" s="46" t="e">
+      </c>
+      <c r="AK17" s="46">
         <f>AJ17/AJ22*AL22</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="AL17" s="20"/>
     </row>
@@ -1764,135 +1803,102 @@
       <c r="D18" s="38"/>
       <c r="E18" s="39">
         <f>E16+E17</f>
-        <v>0</v>
       </c>
       <c r="F18" s="39">
         <f>F16+F17</f>
-        <v>0</v>
       </c>
       <c r="G18" s="39">
         <f>G16+G17</f>
-        <v>0</v>
       </c>
       <c r="H18" s="39">
         <f>H16+H17</f>
-        <v>0</v>
       </c>
       <c r="I18" s="39">
         <f>I16+I17</f>
-        <v>0</v>
       </c>
       <c r="J18" s="39">
         <f>J16+J17</f>
-        <v>0</v>
       </c>
       <c r="K18" s="39">
         <f>K16+K17</f>
-        <v>0</v>
       </c>
       <c r="L18" s="39">
         <f>L16+L17</f>
-        <v>0</v>
       </c>
       <c r="M18" s="39">
         <f>M16+M17</f>
-        <v>0</v>
       </c>
       <c r="N18" s="39">
         <f>N16+N17</f>
-        <v>0</v>
       </c>
       <c r="O18" s="39">
         <f>O16+O17</f>
-        <v>0</v>
       </c>
       <c r="P18" s="39">
         <f>P16+P17</f>
-        <v>0</v>
       </c>
       <c r="Q18" s="39">
         <f>Q16+Q17</f>
-        <v>0</v>
       </c>
       <c r="R18" s="39">
         <f>R16+R17</f>
-        <v>0</v>
       </c>
       <c r="S18" s="39">
         <f>S16+S17</f>
-        <v>0</v>
       </c>
       <c r="T18" s="39">
         <f>T16+T17</f>
-        <v>0</v>
       </c>
       <c r="U18" s="39">
         <f>U16+U17</f>
-        <v>0</v>
       </c>
       <c r="V18" s="39">
         <f>V16+V17</f>
-        <v>0</v>
       </c>
       <c r="W18" s="39">
         <f>W16+W17</f>
-        <v>0</v>
       </c>
       <c r="X18" s="39">
         <f>X16+X17</f>
-        <v>0</v>
       </c>
       <c r="Y18" s="39">
         <f>Y16+Y17</f>
-        <v>0</v>
       </c>
       <c r="Z18" s="39">
         <f>Z16+Z17</f>
-        <v>0</v>
       </c>
       <c r="AA18" s="39">
         <f>AA16+AA17</f>
-        <v>0</v>
       </c>
       <c r="AB18" s="39">
         <f>AB16+AB17</f>
-        <v>0</v>
       </c>
       <c r="AC18" s="39">
         <f>AC16+AC17</f>
-        <v>0</v>
       </c>
       <c r="AD18" s="39">
         <f>AD16+AD17</f>
-        <v>0</v>
       </c>
       <c r="AE18" s="39">
         <f>AE16+AE17</f>
-        <v>0</v>
       </c>
       <c r="AF18" s="39">
         <f>AF16+AF17</f>
-        <v>0</v>
       </c>
       <c r="AG18" s="47">
         <f>AG16+AG17</f>
-        <v>0</v>
       </c>
       <c r="AH18" s="47">
         <f>AH16+AH17</f>
-        <v>0</v>
       </c>
       <c r="AI18" s="48">
         <f>AI16+AI17</f>
-        <v>0</v>
       </c>
       <c r="AJ18" s="41">
         <f>AJ16+AJ17</f>
-        <v>0</v>
-      </c>
-      <c r="AK18" s="42" t="e">
+      </c>
+      <c r="AK18" s="42">
         <f>AK16+AK17</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="AL18" s="20"/>
     </row>
@@ -1901,12 +1907,8 @@
       <c r="B19" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="50">
-        <v>44558.33333333333</v>
-      </c>
-      <c r="D19" s="24">
-        <v>44559</v>
-      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
@@ -1940,11 +1942,9 @@
       <c r="AI19" s="29"/>
       <c r="AJ19" s="30">
         <f>SUM(E19:AI19)</f>
-        <v>0</v>
-      </c>
-      <c r="AK19" s="31" t="e">
+      </c>
+      <c r="AK19" s="31">
         <f>AJ19/AJ22*AL22</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="AL19" s="20"/>
     </row>
@@ -1953,12 +1953,8 @@
       <c r="B20" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="33">
-        <v>44559</v>
-      </c>
-      <c r="D20" s="49" t="s">
-        <v>26</v>
-      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="43"/>
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
@@ -1992,11 +1988,9 @@
       <c r="AI20" s="43"/>
       <c r="AJ20" s="45">
         <f>SUM(E20:AI20)</f>
-        <v>0</v>
-      </c>
-      <c r="AK20" s="46" t="e">
+      </c>
+      <c r="AK20" s="46">
         <f>AJ20/AJ22*AL22</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="AL20" s="20"/>
     </row>
@@ -2009,135 +2003,102 @@
       <c r="D21" s="38"/>
       <c r="E21" s="39">
         <f>E19+E20</f>
-        <v>0</v>
       </c>
       <c r="F21" s="39">
         <f>F19+F20</f>
-        <v>0</v>
       </c>
       <c r="G21" s="39">
         <f>G19+G20</f>
-        <v>0</v>
       </c>
       <c r="H21" s="39">
         <f>H19+H20</f>
-        <v>0</v>
       </c>
       <c r="I21" s="39">
         <f>I19+I20</f>
-        <v>0</v>
       </c>
       <c r="J21" s="39">
         <f>J19+J20</f>
-        <v>0</v>
       </c>
       <c r="K21" s="39">
         <f>K19+K20</f>
-        <v>0</v>
       </c>
       <c r="L21" s="39">
         <f>L19+L20</f>
-        <v>0</v>
       </c>
       <c r="M21" s="39">
         <f>M19+M20</f>
-        <v>0</v>
       </c>
       <c r="N21" s="39">
         <f>N19+N20</f>
-        <v>0</v>
       </c>
       <c r="O21" s="39">
         <f>O19+O20</f>
-        <v>0</v>
       </c>
       <c r="P21" s="39">
         <f>P19+P20</f>
-        <v>0</v>
       </c>
       <c r="Q21" s="39">
         <f>Q19+Q20</f>
-        <v>0</v>
       </c>
       <c r="R21" s="39">
         <f>R19+R20</f>
-        <v>0</v>
       </c>
       <c r="S21" s="39">
         <f>S19+S20</f>
-        <v>0</v>
       </c>
       <c r="T21" s="39">
         <f>T19+T20</f>
-        <v>0</v>
       </c>
       <c r="U21" s="39">
         <f>U19+U20</f>
-        <v>0</v>
       </c>
       <c r="V21" s="39">
         <f>V19+V20</f>
-        <v>0</v>
       </c>
       <c r="W21" s="39">
         <f>W19+W20</f>
-        <v>0</v>
       </c>
       <c r="X21" s="39">
         <f>X19+X20</f>
-        <v>0</v>
       </c>
       <c r="Y21" s="39">
         <f>Y19+Y20</f>
-        <v>0</v>
       </c>
       <c r="Z21" s="39">
         <f>Z19+Z20</f>
-        <v>0</v>
       </c>
       <c r="AA21" s="39">
         <f>AA19+AA20</f>
-        <v>0</v>
       </c>
       <c r="AB21" s="39">
         <f>AB19+AB20</f>
-        <v>0</v>
       </c>
       <c r="AC21" s="39">
         <f>AC19+AC20</f>
-        <v>0</v>
       </c>
       <c r="AD21" s="39">
         <f>AD19+AD20</f>
-        <v>0</v>
       </c>
       <c r="AE21" s="39">
         <f>AE19+AE20</f>
-        <v>0</v>
       </c>
       <c r="AF21" s="39">
         <f>AF19+AF20</f>
-        <v>0</v>
       </c>
       <c r="AG21" s="47">
         <f>AG19+AG20</f>
-        <v>0</v>
       </c>
       <c r="AH21" s="47">
         <f>AH19+AH20</f>
-        <v>0</v>
       </c>
       <c r="AI21" s="48">
         <f>AI19+AI20</f>
-        <v>0</v>
       </c>
       <c r="AJ21" s="41">
         <f>AJ19+AJ20</f>
-        <v>0</v>
-      </c>
-      <c r="AK21" s="42" t="e">
+      </c>
+      <c r="AK21" s="42">
         <f>AK19+AK20</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="AL21" s="20"/>
     </row>
@@ -2176,12 +2137,11 @@
       <c r="AF22" s="55"/>
       <c r="AG22" s="55"/>
       <c r="AH22" s="55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI22" s="55"/>
       <c r="AJ22" s="56">
         <f>AJ12+AJ15+AJ18+AJ21</f>
-        <v>0</v>
       </c>
       <c r="AK22" s="56" t="e">
         <f>AK12+AK15+AK18+AK21</f>
@@ -2333,7 +2293,7 @@
     <row r="28" ht="13.8" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2455,7 +2415,7 @@
     <row r="31" ht="13.8" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="64"/>
       <c r="B31" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -2507,7 +2467,7 @@
       <c r="J32" s="62"/>
       <c r="K32" s="61"/>
       <c r="L32" s="67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M32" s="67"/>
       <c r="N32" s="67"/>
@@ -2579,7 +2539,7 @@
     <row r="34" ht="13.8" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="64"/>
       <c r="B34" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -2631,7 +2591,7 @@
       <c r="J35" s="61"/>
       <c r="K35" s="61"/>
       <c r="L35" s="67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M35" s="67"/>
       <c r="N35" s="67"/>
@@ -2703,7 +2663,7 @@
     <row r="37" ht="13.8" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="64"/>
       <c r="B37" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="61"/>
@@ -2745,7 +2705,7 @@
     <row r="38" ht="13.8" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="64"/>
       <c r="B38" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="61"/>
@@ -2827,7 +2787,7 @@
     <row r="40" ht="13.8" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="64"/>
       <c r="B40" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
